--- a/src/main/resources/Time.xlsx
+++ b/src/main/resources/Time.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="13" sheetId="2" r:id="rId1"/>
     <sheet name="14" sheetId="3" r:id="rId2"/>
     <sheet name="15" sheetId="4" r:id="rId3"/>
     <sheet name="16" sheetId="5" r:id="rId4"/>
-    <sheet name="17" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -395,7 +394,7 @@
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,442 +975,213 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>0.20902777777777778</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>0.22361111111111109</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.23819444444444446</v>
+        <v>0.22222222222222199</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>0.25277777777777777</v>
+        <v>0.22916666666666699</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.2638888888888889</v>
+        <v>0.23611111111111099</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>0.27152777777777776</v>
+      <c r="A6" s="1">
+        <v>0.243055555555556</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>0.27916666666666662</v>
+        <v>0.24791666666666667</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>0.28680555555555554</v>
+        <v>0.25208333333333333</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>0.29374999999999996</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>0.30069444444444443</v>
+        <v>0.25902777777777758</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>0.30694444444444441</v>
+        <v>0.26249999999999957</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>0.31249999999999994</v>
+      <c r="A12" s="3">
+        <v>0.26597222222222255</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>0.31874999999999998</v>
+      <c r="A13" s="1">
+        <v>0.2687500000000001</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>0.32222222222222224</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>0.32638888888888867</v>
+        <v>0.27499999999999997</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>0.33055555555555505</v>
+        <v>0.27847222222222223</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>0.33541666666666664</v>
+        <v>0.28194444444444444</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>0.34097222222222223</v>
+        <v>0.28680555555555559</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>0.34444444444444439</v>
+        <v>0.28958333333333336</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>0.34722222222222177</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>0.35069444444444436</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>0.35486111111111107</v>
+        <v>0.29652777777777778</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>0.35833333333333334</v>
+        <v>0.29930555555555555</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>0.36319444444444438</v>
+        <v>0.30138888888888887</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>0.36805555555555552</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>0.3701388888888888</v>
+        <v>0.30833333333333335</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>0.37361111111111112</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>0.37777777777777771</v>
+      <c r="A28" s="1">
+        <v>0.31458333333333338</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>0.38124999999999992</v>
+        <v>0.31736111111111115</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>0.38541666666666663</v>
+      <c r="A30" s="1">
+        <v>0.32083333333333336</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>0.22916666666666669</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0.23958333333333331</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>0.26041666666666657</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0.2673611111111111</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0.27430555555555558</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>0.28126157407407409</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>0.28752314814814811</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>0.29378472222222218</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>0.29935185185185176</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>0.30422453703703689</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>0.30976851851851844</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>0.31253472222222217</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>0.31599537037037012</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>0.31946759259259211</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>0.32364583333333335</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>0.32851851851851849</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>0.33130787037037029</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>0.33337962962962925</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>0.33614583333333331</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>0.33960648148148148</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>0.34237268518518521</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>0.34652777777777777</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>0.35416666666666663</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>0.35902777777777772</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>0.36527777777777781</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>0.37222222222222223</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>0.37847222222222221</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>0.38541666666666663</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
